--- a/public/assets/documents/import_products.xlsx
+++ b/public/assets/documents/import_products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Angular\PointOfSale\pos\public\assets\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8316A98-007F-4A65-92AA-3E68322F0A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB58DE3-52D1-4CD8-AAB1-E364D9A096B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{000AA59F-274F-4BCB-BB26-CDEE3AF30FAC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>name</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>category_id</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
 </sst>
 </file>
@@ -404,31 +407,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD6D063-E5B7-43D7-9514-57A85E4C1C8B}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
